--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="20880" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="测试总况" sheetId="1" r:id="rId1"/>
     <sheet name="测试详情" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -26,46 +26,46 @@
     <t>versionCode</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>用例总数</t>
+  </si>
+  <si>
+    <t>脚本语言</t>
+  </si>
+  <si>
     <t>versionName</t>
   </si>
   <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>通过总数</t>
+  </si>
+  <si>
+    <t>appium1.7+python3</t>
+  </si>
+  <si>
     <t>packingTime</t>
   </si>
   <si>
+    <t>2017/12/4 13:00</t>
+  </si>
+  <si>
+    <t>失败总数</t>
+  </si>
+  <si>
     <t>测试日期</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>2017/12/4 13:00</t>
-  </si>
-  <si>
     <t>2018-05-07 23:39:09</t>
   </si>
   <si>
-    <t>用例总数</t>
-  </si>
-  <si>
-    <t>通过总数</t>
-  </si>
-  <si>
-    <t>失败总数</t>
-  </si>
-  <si>
     <t>测试耗时</t>
   </si>
   <si>
     <t>45秒</t>
-  </si>
-  <si>
-    <t>脚本语言</t>
-  </si>
-  <si>
-    <t>appium1.7+python3</t>
   </si>
   <si>
     <t>机型</t>
@@ -134,40 +134,197 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,17 +333,237 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -204,56 +581,409 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="zh-CN" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>测试统计</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -262,8 +992,33 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>自动化测试统计</c:v>
+            <c:strRef>
+              <c:f>"自动化测试统计"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>自动化测试统计</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>测试总况!$C$4:$C$5</c:f>
@@ -288,31 +1043,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -322,28 +1104,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1039495</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>353695</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6176645" y="2867025"/>
+        <a:ext cx="5899150" cy="2514600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -635,120 +1417,119 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="5" width="20.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="23.25" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="30" customHeight="1" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:5">
+      <c r="A4" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+    <row r="5" ht="30" customHeight="1" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
+    <row r="6" ht="30" customHeight="1" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1"/>
-    <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="7" ht="30" customHeight="1"/>
+    <row r="8" ht="30" customHeight="1" spans="1:3">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
+    <row r="9" ht="30" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -756,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -765,78 +1546,81 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="E4:E6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="20.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="23.25" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" ht="30" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -864,18 +1648,19 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" ht="30" customHeight="1"/>
+    <row r="5" ht="30" customHeight="1"/>
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="30" customHeight="1"/>
+    <row r="8" ht="30" customHeight="1"/>
+    <row r="9" ht="30" customHeight="1"/>
+    <row r="10" ht="30" customHeight="1"/>
+    <row r="11" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-07-23 11:16:27</t>
+    <t>2018-07-24 11:32:00</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,13 +59,13 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>55秒</t>
+    <t>84秒</t>
   </si>
   <si>
     <t>脚本语言</t>
   </si>
   <si>
-    <t>appium1.7+python3</t>
+    <t>appium1.8+python3</t>
   </si>
   <si>
     <t>机型</t>
@@ -80,9 +80,6 @@
     <t>asus_P023_android_5.1.1</t>
   </si>
   <si>
-    <t>Meizu_m2_android_5.1</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -119,7 +116,7 @@
     <t>app登录</t>
   </si>
   <si>
-    <t>testFirstOpen</t>
+    <t>testLoginJslifeApp</t>
   </si>
   <si>
     <t>打开app</t>
@@ -292,7 +289,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -332,16 +329,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -648,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -707,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -763,17 +760,6 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -810,7 +796,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -827,31 +813,31 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
@@ -859,22 +845,22 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -882,34 +868,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-07-24 11:32:00</t>
+    <t>2018-07-24 20:26:24</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>84秒</t>
+    <t>159秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,9 +77,6 @@
     <t>失败</t>
   </si>
   <si>
-    <t>asus_P023_android_5.1.1</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -108,30 +105,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>app登录</t>
-  </si>
-  <si>
-    <t>testLoginJslifeApp</t>
-  </si>
-  <si>
-    <t>打开app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录成功
-</t>
   </si>
 </sst>
 </file>
@@ -289,7 +262,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -687,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -704,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -752,17 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -796,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -813,61 +776,34 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1"/>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-07-24 20:26:24</t>
+    <t>2018-07-31 09:26:45</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>159秒</t>
+    <t>78秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,6 +77,9 @@
     <t>失败</t>
   </si>
   <si>
+    <t>asus_P023_android_5.1.1</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -105,6 +108,35 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>app登录</t>
+  </si>
+  <si>
+    <t>test_register</t>
+  </si>
+  <si>
+    <t>打开app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+点击注册按钮
+输入手机号码
+输入验证码
+输入密码
+点击完成注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示已经被注册
+</t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:==检查点_提示已经被注册失败，请检查_//*[contains(@text, '已经被注册过')]==
+==检查点_提示已经被注册失败，请检查_//*[contains(@text, '已经被注册过')]==</t>
   </si>
 </sst>
 </file>
@@ -265,7 +297,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,6 +360,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="app登录CheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="571500"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -660,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -694,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -725,7 +800,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -759,7 +844,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -776,34 +861,62 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="110" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
@@ -817,5 +930,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -41,10 +41,10 @@
     <t>1.4.0</t>
   </si>
   <si>
-    <t>2017/12/4 13:00</t>
-  </si>
-  <si>
-    <t>2018-07-31 09:26:45</t>
+    <t>2018-08-14 18:27:46</t>
+  </si>
+  <si>
+    <t>2018-08-14 18:29:55</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>78秒</t>
+    <t>117秒</t>
   </si>
   <si>
     <t>脚本语言</t>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>1.4.0</t>
   </si>
   <si>
-    <t>2018-08-14 18:27:46</t>
-  </si>
-  <si>
-    <t>2018-08-14 18:29:55</t>
+    <t>2018-08-17 17:31:19</t>
+  </si>
+  <si>
+    <t>2018-08-17 17:31:31</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>117秒</t>
+    <t>7秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,9 +77,6 @@
     <t>失败</t>
   </si>
   <si>
-    <t>asus_P023_android_5.1.1</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -108,35 +105,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>app登录</t>
-  </si>
-  <si>
-    <t>test_register</t>
-  </si>
-  <si>
-    <t>打开app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-点击注册按钮
-输入手机号码
-输入验证码
-输入密码
-点击完成注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示已经被注册
-</t>
-  </si>
-  <si>
-    <t>用例失败重连过一次，失败原因:==检查点_提示已经被注册失败，请检查_//*[contains(@text, '已经被注册过')]==
-==检查点_提示已经被注册失败，请检查_//*[contains(@text, '已经被注册过')]==</t>
   </si>
 </sst>
 </file>
@@ -297,7 +265,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -360,49 +328,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="app登录CheckPoint_1_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="571500"/>
-          <a:ext cx="685800" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -735,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -769,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -800,17 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -844,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -861,62 +776,34 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1"/>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
@@ -930,6 +817,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>1.4.0</t>
   </si>
   <si>
-    <t>2018-08-17 17:31:19</t>
-  </si>
-  <si>
-    <t>2018-08-17 17:31:31</t>
+    <t>2018-08-19 19:14:36</t>
+  </si>
+  <si>
+    <t>2018-08-19 19:15:31</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>7秒</t>
+    <t>49秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,6 +77,9 @@
     <t>失败</t>
   </si>
   <si>
+    <t>asus_P023_android_5.1.1</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -105,6 +108,29 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>app登录</t>
+  </si>
+  <si>
+    <t>test_loginJslifeApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户昵称
+用户名称
+余额
+</t>
   </si>
 </sst>
 </file>
@@ -262,7 +288,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -660,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -677,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -725,7 +751,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -759,7 +795,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -776,34 +812,61 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>1.4.0</t>
   </si>
   <si>
-    <t>2018-08-19 19:14:36</t>
-  </si>
-  <si>
-    <t>2018-08-19 19:15:31</t>
+    <t>2018-08-19 19:55:32</t>
+  </si>
+  <si>
+    <t>2018-08-19 19:56:44</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>49秒</t>
+    <t>67秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -131,6 +131,31 @@
 用户名称
 余额
 </t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>test_register</t>
+  </si>
+  <si>
+    <t>打开app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+点击注册按钮
+输入手机号码
+输入验证码
+输入密码
+点击完成注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示已经被注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/ic_guide_past, </t>
   </si>
 </sst>
 </file>
@@ -288,7 +313,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -686,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -703,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -756,7 +781,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -867,7 +892,36 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -41,10 +41,10 @@
     <t>1.4.0</t>
   </si>
   <si>
-    <t>2018-08-19 19:55:32</t>
-  </si>
-  <si>
-    <t>2018-08-19 19:56:44</t>
+    <t>2018-08-19 20:39:04</t>
+  </si>
+  <si>
+    <t>2018-08-19 20:39:55</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>67秒</t>
+    <t>46秒</t>
   </si>
   <si>
     <t>脚本语言</t>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -20,7 +20,7 @@
     <t>测试报告总概况</t>
   </si>
   <si>
-    <t>WebLink知识测试概括</t>
+    <t>Appium-Testing(测试与质量保证部)</t>
   </si>
   <si>
     <t>versionCode</t>
@@ -35,16 +35,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>2018-08-19 20:39:04</t>
-  </si>
-  <si>
-    <t>2018-08-19 20:39:55</t>
+    <t>302010</t>
+  </si>
+  <si>
+    <t>V3.2.1</t>
+  </si>
+  <si>
+    <t>2018-08-19 21:47:44</t>
+  </si>
+  <si>
+    <t>2018-08-19 21:48:33</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>46秒</t>
+    <t>44秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -162,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -204,7 +212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
+        <fgColor rgb="FF1E90FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,18 +244,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,7 +741,7 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -747,7 +758,7 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -762,7 +773,7 @@
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1"/>
     <row r="8" spans="1:5" ht="30" customHeight="1">
@@ -819,18 +830,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.1</t>
   </si>
   <si>
-    <t>2018-08-19 21:47:44</t>
-  </si>
-  <si>
-    <t>2018-08-19 21:48:33</t>
+    <t>2018-08-20 19:39:14</t>
+  </si>
+  <si>
+    <t>2018-08-20 19:42:02</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>44秒</t>
+    <t>151秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -130,16 +130,20 @@
     <t xml:space="preserve">用户昵称
 用户名称
 余额
+卡券
 </t>
   </si>
   <si>
     <t>test002</t>
   </si>
   <si>
+    <t>app注册检查</t>
+  </si>
+  <si>
     <t>test_register</t>
   </si>
   <si>
-    <t>打开app</t>
+    <t>app注册</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -157,12 +161,66 @@
   <si>
     <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/ic_guide_past, </t>
   </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额检查</t>
+  </si>
+  <si>
+    <t>test_myBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>卡券数量检查</t>
+  </si>
+  <si>
+    <t>test_myVoucher</t>
+  </si>
+  <si>
+    <t>卡券检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>我的卡券</t>
+  </si>
+  <si>
+    <t>test_myVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用卡券
+已过期卡券
+已使用卡券
+卡券面额
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +256,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7CFC00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -244,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,6 +325,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -324,7 +393,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -722,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -739,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -792,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -897,7 +966,7 @@
       <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="3"/>
@@ -911,31 +980,116 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>
     <row r="10" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.1</t>
   </si>
   <si>
-    <t>2018-08-20 19:39:14</t>
-  </si>
-  <si>
-    <t>2018-08-20 19:42:02</t>
+    <t>2018-08-23 17:49:23</t>
+  </si>
+  <si>
+    <t>2018-08-23 17:51:24</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>151秒</t>
+    <t>116秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,9 +77,6 @@
     <t>失败</t>
   </si>
   <si>
-    <t>asus_P023_android_5.1.1</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -108,119 +105,13 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>app登录</t>
-  </si>
-  <si>
-    <t>test_loginJslifeApp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户昵称
-用户名称
-余额
-卡券
-</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>app注册检查</t>
-  </si>
-  <si>
-    <t>test_register</t>
-  </si>
-  <si>
-    <t>app注册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-点击注册按钮
-输入手机号码
-输入验证码
-输入密码
-点击完成注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示已经被注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/ic_guide_past, </t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>余额检查</t>
-  </si>
-  <si>
-    <t>test_myBalance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余额
-</t>
-  </si>
-  <si>
-    <t>test004</t>
-  </si>
-  <si>
-    <t>卡券数量检查</t>
-  </si>
-  <si>
-    <t>test_myVoucher</t>
-  </si>
-  <si>
-    <t>卡券检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券
-</t>
-  </si>
-  <si>
-    <t>test005</t>
-  </si>
-  <si>
-    <t>我的卡券</t>
-  </si>
-  <si>
-    <t>test_myVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未使用卡券
-已过期卡券
-已使用卡券
-卡券面额
-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,14 +147,6 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7CFC00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,9 +208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,7 +273,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -791,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -808,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -856,17 +736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -900,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -917,179 +787,38 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>
     <row r="10" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.1</t>
   </si>
   <si>
-    <t>2018-08-23 17:49:23</t>
-  </si>
-  <si>
-    <t>2018-08-23 17:51:24</t>
+    <t>2018-08-24 11:42:28</t>
+  </si>
+  <si>
+    <t>2018-08-24 11:47:26</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>116秒</t>
+    <t>257秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,13 +77,16 @@
     <t>失败</t>
   </si>
   <si>
+    <t>asus_P023_android_5.1.1</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
     <t>用例ID</t>
   </si>
   <si>
-    <t>用例介绍</t>
+    <t>用例名称</t>
   </si>
   <si>
     <t>用例函数</t>
@@ -105,13 +108,168 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>app登录</t>
+  </si>
+  <si>
+    <t>test_loginJslifeApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户昵称
+用户名称
+余额
+卡券
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>app注册检查</t>
+  </si>
+  <si>
+    <t>test_register</t>
+  </si>
+  <si>
+    <t>app注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+点击注册按钮
+输入手机号码
+输入验证码
+输入密码
+点击完成注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示已经被注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/ic_guide_past, </t>
+  </si>
+  <si>
+    <t>test007</t>
+  </si>
+  <si>
+    <t>已过期的卡券详情</t>
+  </si>
+  <si>
+    <t>test_OverTimeVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+已过期的卡券列表
+已过期的卡券详情页面
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券名称
+优惠方式
+有效日期
+使用场所
+</t>
+  </si>
+  <si>
+    <t>用例失败重连过一次，失败原因:==检查点_对比数据失败，当前取到到实际数据为:500元停车券,期望数据为:5.00元停车券</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>未使用的卡券详情</t>
+  </si>
+  <si>
+    <t>test_UnusedVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+未使用的卡券详情
+</t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额检查</t>
+  </si>
+  <si>
+    <t>test_myBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>卡券数量检查</t>
+  </si>
+  <si>
+    <t>test_myVoucher</t>
+  </si>
+  <si>
+    <t>卡券检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>我的卡券</t>
+  </si>
+  <si>
+    <t>test_myVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用卡券
+已过期卡券
+已使用卡券
+卡券面额
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +305,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF98FB98"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +374,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -273,7 +442,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -671,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -688,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -736,7 +905,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -770,7 +949,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -787,40 +966,241 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1"/>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
     <row r="10" spans="1:10" ht="30" customHeight="1"/>
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.1</t>
   </si>
   <si>
-    <t>2018-08-24 11:42:28</t>
-  </si>
-  <si>
-    <t>2018-08-24 11:47:26</t>
+    <t>2018-08-24 14:56:46</t>
+  </si>
+  <si>
+    <t>2018-08-24 14:57:40</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>257秒</t>
+    <t>51秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,13 +110,13 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>app登录</t>
-  </si>
-  <si>
-    <t>test_loginJslifeApp</t>
+    <t>test008</t>
+  </si>
+  <si>
+    <t>消费记录</t>
+  </si>
+  <si>
+    <t>test_008_ConsumeRecord</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -124,145 +124,20 @@
 输入密码
 点击登录按钮
 点击我的
+查看消费记录
 </t>
   </si>
   <si>
-    <t xml:space="preserve">用户昵称
-用户名称
-余额
-卡券
+    <t xml:space="preserve">停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+订单类型
 </t>
   </si>
   <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>app注册检查</t>
-  </si>
-  <si>
-    <t>test_register</t>
-  </si>
-  <si>
-    <t>app注册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-点击注册按钮
-输入手机号码
-输入验证码
-输入密码
-点击完成注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示已经被注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/ic_guide_past, </t>
-  </si>
-  <si>
-    <t>test007</t>
-  </si>
-  <si>
-    <t>已过期的卡券详情</t>
-  </si>
-  <si>
-    <t>test_OverTimeVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-已过期的卡券列表
-已过期的卡券详情页面
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券名称
-优惠方式
-有效日期
-使用场所
-</t>
-  </si>
-  <si>
-    <t>用例失败重连过一次，失败原因:==检查点_对比数据失败，当前取到到实际数据为:500元停车券,期望数据为:5.00元停车券</t>
-  </si>
-  <si>
-    <t>test006</t>
-  </si>
-  <si>
-    <t>未使用的卡券详情</t>
-  </si>
-  <si>
-    <t>test_UnusedVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-未使用的卡券详情
-</t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>余额检查</t>
-  </si>
-  <si>
-    <t>test_myBalance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余额
-</t>
-  </si>
-  <si>
-    <t>test004</t>
-  </si>
-  <si>
-    <t>卡券数量检查</t>
-  </si>
-  <si>
-    <t>test_myVoucher</t>
-  </si>
-  <si>
-    <t>卡券检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券
-</t>
-  </si>
-  <si>
-    <t>test005</t>
-  </si>
-  <si>
-    <t>我的卡券</t>
-  </si>
-  <si>
-    <t>test_myVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未使用卡券
-已过期卡券
-已使用卡券
-卡券面额
-</t>
+    <t>用例失败重连过一次，失败原因:==检查点_对比数据失败，当前取到到实际数据为:三楼测试20171207,期望数据为:三楼测试--20171207</t>
   </si>
 </sst>
 </file>
@@ -442,7 +317,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -840,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -857,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -910,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1018,189 +893,17 @@
       <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1"/>
+    <row r="9" spans="1:10" ht="30" customHeight="1"/>
     <row r="10" spans="1:10" ht="30" customHeight="1"/>
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.1</t>
   </si>
   <si>
-    <t>2018-08-24 14:56:46</t>
-  </si>
-  <si>
-    <t>2018-08-24 14:57:40</t>
+    <t>2018-08-25 23:33:11</t>
+  </si>
+  <si>
+    <t>2018-08-25 23:38:15</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>51秒</t>
+    <t>300秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -108,6 +108,158 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>app登录</t>
+  </si>
+  <si>
+    <t>test_001_loginJslifeApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户昵称
+用户名称
+余额
+卡券
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>app注册检查</t>
+  </si>
+  <si>
+    <t>test_002_register</t>
+  </si>
+  <si>
+    <t>app注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+点击注册按钮
+输入手机号码
+输入验证码
+输入密码
+点击完成注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示已经被注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/ic_guide_past, </t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额检查</t>
+  </si>
+  <si>
+    <t>test_003_myBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>卡券数量检查</t>
+  </si>
+  <si>
+    <t>test_004_myVoucher</t>
+  </si>
+  <si>
+    <t>卡券检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>我的卡券</t>
+  </si>
+  <si>
+    <t>test_005_myVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用卡券
+已过期卡券
+已使用卡券
+卡券面额
+</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>未使用的卡券详情</t>
+  </si>
+  <si>
+    <t>test_006_UnusedVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+未使用的卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券名称
+优惠方式
+有效日期
+使用场所
+</t>
+  </si>
+  <si>
+    <t>test007</t>
+  </si>
+  <si>
+    <t>已过期的卡券详情</t>
+  </si>
+  <si>
+    <t>test_007_OverTimeVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+已过期的卡券列表
+已过期的卡券详情页面
+</t>
   </si>
   <si>
     <t>test008</t>
@@ -137,14 +289,15 @@
 </t>
   </si>
   <si>
-    <t>用例失败重连过一次，失败原因:==检查点_对比数据失败，当前取到到实际数据为:三楼测试20171207,期望数据为:三楼测试--20171207</t>
+    <t>用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/ic_guide_past, 
+==检查点_对比数据失败，当前取到到实际数据为:0.01,期望数据为:0.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +345,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF4500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -234,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,6 +413,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -317,10 +481,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -383,6 +547,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="消费记录CheckPoint_8_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="3238500"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -715,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -732,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -749,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -785,10 +992,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
         <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -893,23 +1100,222 @@
       <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="110" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.1</t>
   </si>
   <si>
-    <t>2018-08-25 23:33:11</t>
-  </si>
-  <si>
-    <t>2018-08-25 23:38:15</t>
+    <t>2018-08-26 21:39:57</t>
+  </si>
+  <si>
+    <t>2018-08-26 21:41:52</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>300秒</t>
+    <t>111秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -108,138 +108,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>app登录</t>
-  </si>
-  <si>
-    <t>test_001_loginJslifeApp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户昵称
-用户名称
-余额
-卡券
-</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>app注册检查</t>
-  </si>
-  <si>
-    <t>test_002_register</t>
-  </si>
-  <si>
-    <t>app注册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-点击注册按钮
-输入手机号码
-输入验证码
-输入密码
-点击完成注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示已经被注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/ic_guide_past, </t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>余额检查</t>
-  </si>
-  <si>
-    <t>test_003_myBalance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余额
-</t>
-  </si>
-  <si>
-    <t>test004</t>
-  </si>
-  <si>
-    <t>卡券数量检查</t>
-  </si>
-  <si>
-    <t>test_004_myVoucher</t>
-  </si>
-  <si>
-    <t>卡券检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券
-</t>
-  </si>
-  <si>
-    <t>test005</t>
-  </si>
-  <si>
-    <t>我的卡券</t>
-  </si>
-  <si>
-    <t>test_005_myVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未使用卡券
-已过期卡券
-已使用卡券
-卡券面额
-</t>
-  </si>
-  <si>
-    <t>test006</t>
-  </si>
-  <si>
-    <t>未使用的卡券详情</t>
-  </si>
-  <si>
-    <t>test_006_UnusedVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-未使用的卡券详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券名称
-优惠方式
-有效日期
-使用场所
-</t>
   </si>
   <si>
     <t>test007</t>
@@ -262,6 +130,13 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">卡券名称
+优惠方式
+有效日期
+使用场所
+</t>
+  </si>
+  <si>
     <t>test008</t>
   </si>
   <si>
@@ -289,15 +164,42 @@
 </t>
   </si>
   <si>
-    <t>用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/ic_guide_past, 
-==检查点_对比数据失败，当前取到到实际数据为:0.01,期望数据为:0.01</t>
+    <t>test009</t>
+  </si>
+  <si>
+    <t>消费记录详情检查</t>
+  </si>
+  <si>
+    <t>test_009_ConsumeRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看消费记录列表
+查看消费记录详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渠道名称
+停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+支付方式
+订单编号
+客服电话
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,14 +247,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF4500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -395,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,9 +307,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,10 +372,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,49 +438,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="消费记录CheckPoint_8_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="3238500"/>
-          <a:ext cx="685800" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -922,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -939,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -956,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -992,10 +840,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1117,20 +965,18 @@
         <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
@@ -1138,22 +984,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>18</v>
@@ -1161,161 +1007,16 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="110" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1"/>
+    <row r="9" spans="1:10" ht="30" customHeight="1"/>
+    <row r="10" spans="1:10" ht="30" customHeight="1"/>
     <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.1</t>
   </si>
   <si>
-    <t>2018-08-26 21:39:57</t>
-  </si>
-  <si>
-    <t>2018-08-26 21:41:52</t>
+    <t>2018-08-27 11:10:01</t>
+  </si>
+  <si>
+    <t>2018-08-27 11:16:09</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>111秒</t>
+    <t>357秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -108,6 +108,135 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>app登录</t>
+  </si>
+  <si>
+    <t>test_001_loginJslifeApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户昵称
+用户名称
+余额
+卡券
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>app注册检查</t>
+  </si>
+  <si>
+    <t>test_002_register</t>
+  </si>
+  <si>
+    <t>app注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+点击注册按钮
+输入手机号码
+输入验证码
+输入密码
+点击完成注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示已经被注册
+</t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额检查</t>
+  </si>
+  <si>
+    <t>test_003_myBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>卡券数量检查</t>
+  </si>
+  <si>
+    <t>test_004_myVoucher</t>
+  </si>
+  <si>
+    <t>卡券检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>我的卡券</t>
+  </si>
+  <si>
+    <t>test_005_myVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用卡券
+已过期卡券
+已使用卡券
+卡券面额
+</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>未使用的卡券详情</t>
+  </si>
+  <si>
+    <t>test_006_UnusedVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+未使用的卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券名称
+优惠方式
+有效日期
+使用场所
+</t>
   </si>
   <si>
     <t>test007</t>
@@ -127,13 +256,6 @@
 查看卡券详情
 已过期的卡券列表
 已过期的卡券详情页面
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券名称
-优惠方式
-有效日期
-使用场所
 </t>
   </si>
   <si>
@@ -372,7 +494,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -770,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -787,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -840,7 +962,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -859,7 +981,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -965,13 +1087,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -984,19 +1106,19 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>45</v>
@@ -1007,12 +1129,175 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -35,16 +35,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>302010</t>
-  </si>
-  <si>
-    <t>V3.2.1</t>
-  </si>
-  <si>
-    <t>2018-08-27 11:10:01</t>
-  </si>
-  <si>
-    <t>2018-08-27 11:16:09</t>
+    <t>302030</t>
+  </si>
+  <si>
+    <t>V3.2.3</t>
+  </si>
+  <si>
+    <t>2018-08-27 14:07:48</t>
+  </si>
+  <si>
+    <t>2018-08-27 14:14:17</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>357秒</t>
+    <t>348秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -314,6 +314,28 @@
 支付方式
 订单编号
 客服电话
+</t>
+  </si>
+  <si>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>我的车辆</t>
+  </si>
+  <si>
+    <t>test_010_ConsumeRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">车牌号码
 </t>
   </si>
 </sst>
@@ -494,7 +516,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -892,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -909,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -962,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -981,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1319,35 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1"/>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-27 14:07:48</t>
-  </si>
-  <si>
-    <t>2018-08-27 14:14:17</t>
+    <t>2018-08-27 18:05:26</t>
+  </si>
+  <si>
+    <t>2018-08-27 18:10:05</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>348秒</t>
+    <t>272秒</t>
   </si>
   <si>
     <t>脚本语言</t>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-27 18:05:26</t>
-  </si>
-  <si>
-    <t>2018-08-27 18:10:05</t>
+    <t>2018-08-27 19:05:12</t>
+  </si>
+  <si>
+    <t>2018-08-27 19:08:30</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>272秒</t>
+    <t>189秒</t>
   </si>
   <si>
     <t>脚本语言</t>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-27 19:05:12</t>
-  </si>
-  <si>
-    <t>2018-08-27 19:08:30</t>
+    <t>2018-08-27 20:02:33</t>
+  </si>
+  <si>
+    <t>2018-08-27 20:03:44</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>189秒</t>
+    <t>67秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,220 +110,13 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>app登录</t>
-  </si>
-  <si>
-    <t>test_001_loginJslifeApp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户昵称
-用户名称
-余额
-卡券
-</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>app注册检查</t>
-  </si>
-  <si>
-    <t>test_002_register</t>
-  </si>
-  <si>
-    <t>app注册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-点击注册按钮
-输入手机号码
-输入验证码
-输入密码
-点击完成注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示已经被注册
-</t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>余额检查</t>
-  </si>
-  <si>
-    <t>test_003_myBalance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余额
-</t>
-  </si>
-  <si>
-    <t>test004</t>
-  </si>
-  <si>
-    <t>卡券数量检查</t>
-  </si>
-  <si>
-    <t>test_004_myVoucher</t>
-  </si>
-  <si>
-    <t>卡券检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券
-</t>
-  </si>
-  <si>
-    <t>test005</t>
-  </si>
-  <si>
-    <t>我的卡券</t>
-  </si>
-  <si>
-    <t>test_005_myVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未使用卡券
-已过期卡券
-已使用卡券
-卡券面额
-</t>
-  </si>
-  <si>
-    <t>test006</t>
-  </si>
-  <si>
-    <t>未使用的卡券详情</t>
-  </si>
-  <si>
-    <t>test_006_UnusedVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-未使用的卡券详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券名称
-优惠方式
-有效日期
-使用场所
-</t>
-  </si>
-  <si>
-    <t>test007</t>
-  </si>
-  <si>
-    <t>已过期的卡券详情</t>
-  </si>
-  <si>
-    <t>test_007_OverTimeVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-已过期的卡券列表
-已过期的卡券详情页面
-</t>
-  </si>
-  <si>
-    <t>test008</t>
-  </si>
-  <si>
-    <t>消费记录</t>
-  </si>
-  <si>
-    <t>test_008_ConsumeRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看消费记录
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">停车场名称
-消费金额
-车牌号码
-消费时间
-订单状态
-订单类型
-</t>
-  </si>
-  <si>
-    <t>test009</t>
-  </si>
-  <si>
-    <t>消费记录详情检查</t>
-  </si>
-  <si>
-    <t>test_009_ConsumeRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看消费记录列表
-查看消费记录详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">渠道名称
-停车场名称
-消费金额
-车牌号码
-消费时间
-订单状态
-支付方式
-订单编号
-客服电话
-</t>
-  </si>
-  <si>
-    <t>test010</t>
-  </si>
-  <si>
-    <t>我的车辆</t>
-  </si>
-  <si>
-    <t>test_010_ConsumeRecord</t>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>新增车辆</t>
+  </si>
+  <si>
+    <t>test_011_myCarAdd</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -332,10 +125,45 @@
 点击登录按钮
 点击我的
 点击我的车辆
+点击新增车辆按钮
+点击省份
+选择省份
+输入车牌号-1
+输入车牌号-2
+输入车牌号-3
+输入车牌号-4
+输入车牌号-5
+输入车牌号-6
+确定
 </t>
   </si>
   <si>
-    <t xml:space="preserve">车牌号码
+    <t xml:space="preserve">提示信息
+车牌号码
+</t>
+  </si>
+  <si>
+    <t>test012</t>
+  </si>
+  <si>
+    <t>删除车辆</t>
+  </si>
+  <si>
+    <t>test_012_myCarDel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击删除车辆
+确定
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
 </t>
   </si>
 </sst>
@@ -516,7 +344,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -914,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -931,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -984,7 +812,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1003,7 +831,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1109,13 +937,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -1123,231 +951,13 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1"/>
+    <row r="9" spans="1:10" ht="30" customHeight="1"/>
+    <row r="10" spans="1:10" ht="30" customHeight="1"/>
+    <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-27 20:02:33</t>
-  </si>
-  <si>
-    <t>2018-08-27 20:03:44</t>
+    <t>2018-08-28 11:44:25</t>
+  </si>
+  <si>
+    <t>2018-08-28 11:46:44</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>67秒</t>
+    <t>124秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,13 +110,13 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test011</t>
+    <t>test010</t>
   </si>
   <si>
     <t>新增车辆</t>
   </si>
   <si>
-    <t>test_011_myCarAdd</t>
+    <t>test_010_myCarAdd</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -143,13 +143,55 @@
 </t>
   </si>
   <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>我的车辆列表</t>
+  </si>
+  <si>
+    <t>test_011_myCarList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">车牌号码
+</t>
+  </si>
+  <si>
     <t>test012</t>
   </si>
   <si>
-    <t>删除车辆</t>
-  </si>
-  <si>
-    <t>test_012_myCarDel</t>
+    <t>删除车辆-放弃删除</t>
+  </si>
+  <si>
+    <t>test_012_myCarDelCancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击我的车辆
+点击删除车辆
+放弃删除
+</t>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>删除车辆-删除成功</t>
+  </si>
+  <si>
+    <t>test_013_myCarDelSuccess</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -164,6 +206,28 @@
   </si>
   <si>
     <t xml:space="preserve">提示信息
+</t>
+  </si>
+  <si>
+    <t>test014</t>
+  </si>
+  <si>
+    <t>开门申请记录</t>
+  </si>
+  <si>
+    <t>test_014_myCarDel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击开门申请
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开门权限申请记录
 </t>
   </si>
 </sst>
@@ -344,7 +408,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -742,7 +806,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -759,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -812,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -951,9 +1015,90 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>
     <row r="10" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-28 11:44:25</t>
-  </si>
-  <si>
-    <t>2018-08-28 11:46:44</t>
+    <t>2018-08-28 13:50:17</t>
+  </si>
+  <si>
+    <t>2018-08-28 14:03:42</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>124秒</t>
+    <t>757秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -108,6 +108,213 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>app登录</t>
+  </si>
+  <si>
+    <t>test_001_loginJslifeApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户昵称
+用户名称
+余额
+卡券
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>app注册检查</t>
+  </si>
+  <si>
+    <t>test_002_register</t>
+  </si>
+  <si>
+    <t>app注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+点击注册按钮
+输入手机号码
+输入验证码
+输入密码
+点击完成注册
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示已经被注册
+</t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>余额检查</t>
+  </si>
+  <si>
+    <t>test_003_myBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余额
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>卡券数量检查</t>
+  </si>
+  <si>
+    <t>test_004_myVoucher</t>
+  </si>
+  <si>
+    <t>卡券检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券
+</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>我的卡券</t>
+  </si>
+  <si>
+    <t>test_005_myVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未使用卡券
+已过期卡券
+已使用卡券
+卡券面额
+</t>
+  </si>
+  <si>
+    <t>test006</t>
+  </si>
+  <si>
+    <t>未使用的卡券详情</t>
+  </si>
+  <si>
+    <t>test_006_unusedVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+未使用的卡券详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卡券名称
+优惠方式
+有效日期
+使用场所
+</t>
+  </si>
+  <si>
+    <t>test007</t>
+  </si>
+  <si>
+    <t>已过期的卡券详情</t>
+  </si>
+  <si>
+    <t>test_007_overTimeVoucher_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看卡券详情
+已过期的卡券列表
+已过期的卡券详情页面
+</t>
+  </si>
+  <si>
+    <t>test008</t>
+  </si>
+  <si>
+    <t>消费记录</t>
+  </si>
+  <si>
+    <t>test_008_consumeRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看消费记录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+订单类型
+</t>
+  </si>
+  <si>
+    <t>test009</t>
+  </si>
+  <si>
+    <t>消费记录详情检查</t>
+  </si>
+  <si>
+    <t>test_009_consumeRecordDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+查看消费记录列表
+查看消费记录详情
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">渠道名称
+停车场名称
+消费金额
+车牌号码
+消费时间
+订单状态
+支付方式
+订单编号
+客服电话
+</t>
   </si>
   <si>
     <t>test010</t>
@@ -207,6 +414,9 @@
   <si>
     <t xml:space="preserve">提示信息
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/rl_add_cars, </t>
   </si>
   <si>
     <t>test014</t>
@@ -408,7 +618,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -764,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -823,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -876,9 +1086,20 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -895,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1001,13 +1222,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -1020,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>18</v>
@@ -1048,22 +1269,22 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>18</v>
@@ -1076,22 +1297,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>18</v>
@@ -1099,10 +1320,653 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="30" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-28 13:50:17</t>
-  </si>
-  <si>
-    <t>2018-08-28 14:03:42</t>
+    <t>2018-08-28 15:26:53</t>
+  </si>
+  <si>
+    <t>2018-08-28 15:32:06</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>757秒</t>
+    <t>305秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -414,9 +414,6 @@
   <si>
     <t xml:space="preserve">提示信息
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.jieshun.jslife:id/rl_add_cars, </t>
   </si>
   <si>
     <t>test014</t>
@@ -618,7 +615,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -974,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1016,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -1033,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -1089,17 +1086,6 @@
         <v>14</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1116,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1241,22 +1227,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>18</v>
@@ -1269,22 +1255,22 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>18</v>
@@ -1297,22 +1283,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>18</v>
@@ -1325,22 +1311,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>18</v>
@@ -1353,22 +1339,22 @@
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>18</v>
@@ -1381,22 +1367,22 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>18</v>
@@ -1409,22 +1395,22 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
@@ -1437,22 +1423,22 @@
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>18</v>
@@ -1465,22 +1451,22 @@
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>18</v>
@@ -1493,22 +1479,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>18</v>
@@ -1521,22 +1507,22 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>18</v>
@@ -1549,22 +1535,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>18</v>
@@ -1572,401 +1558,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" ht="30" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" ht="30" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" customHeight="1"/>
+    <row r="17" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-28 15:26:53</t>
-  </si>
-  <si>
-    <t>2018-08-28 15:32:06</t>
+    <t>2018-08-29 15:31:44</t>
+  </si>
+  <si>
+    <t>2018-08-29 15:32:40</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>305秒</t>
+    <t>52秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,13 +110,13 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>app登录</t>
-  </si>
-  <si>
-    <t>test_001_loginJslifeApp</t>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>意见反馈-新增</t>
+  </si>
+  <si>
+    <t>test_015_feedbackAdd</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -124,77 +124,24 @@
 输入密码
 点击登录按钮
 点击我的
+点击意见反馈
+输入意见
+点击提交
 </t>
   </si>
   <si>
-    <t xml:space="preserve">用户昵称
-用户名称
-余额
-卡券
+    <t xml:space="preserve">提示信息
+检查是否退出菜单
 </t>
   </si>
   <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>app注册检查</t>
-  </si>
-  <si>
-    <t>test_002_register</t>
-  </si>
-  <si>
-    <t>app注册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-点击注册按钮
-输入手机号码
-输入验证码
-输入密码
-点击完成注册
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示已经被注册
-</t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>余额检查</t>
-  </si>
-  <si>
-    <t>test_003_myBalance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">余额
-</t>
-  </si>
-  <si>
-    <t>test004</t>
-  </si>
-  <si>
-    <t>卡券数量检查</t>
-  </si>
-  <si>
-    <t>test_004_myVoucher</t>
-  </si>
-  <si>
-    <t>卡券检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券
-</t>
-  </si>
-  <si>
-    <t>test005</t>
-  </si>
-  <si>
-    <t>我的卡券</t>
-  </si>
-  <si>
-    <t>test_005_myVoucher_detail</t>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>意见反馈-追问</t>
+  </si>
+  <si>
+    <t>test_016_feedbackMore</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -202,239 +149,15 @@
 输入密码
 点击登录按钮
 点击我的
-查看卡券详情
+点击意见反馈
+查看意见反馈记录
+点击某条记录
+继续追问
+发送
 </t>
   </si>
   <si>
-    <t xml:space="preserve">未使用卡券
-已过期卡券
-已使用卡券
-卡券面额
-</t>
-  </si>
-  <si>
-    <t>test006</t>
-  </si>
-  <si>
-    <t>未使用的卡券详情</t>
-  </si>
-  <si>
-    <t>test_006_unusedVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-未使用的卡券详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卡券名称
-优惠方式
-有效日期
-使用场所
-</t>
-  </si>
-  <si>
-    <t>test007</t>
-  </si>
-  <si>
-    <t>已过期的卡券详情</t>
-  </si>
-  <si>
-    <t>test_007_overTimeVoucher_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看卡券详情
-已过期的卡券列表
-已过期的卡券详情页面
-</t>
-  </si>
-  <si>
-    <t>test008</t>
-  </si>
-  <si>
-    <t>消费记录</t>
-  </si>
-  <si>
-    <t>test_008_consumeRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看消费记录
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">停车场名称
-消费金额
-车牌号码
-消费时间
-订单状态
-订单类型
-</t>
-  </si>
-  <si>
-    <t>test009</t>
-  </si>
-  <si>
-    <t>消费记录详情检查</t>
-  </si>
-  <si>
-    <t>test_009_consumeRecordDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-查看消费记录列表
-查看消费记录详情
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">渠道名称
-停车场名称
-消费金额
-车牌号码
-消费时间
-订单状态
-支付方式
-订单编号
-客服电话
-</t>
-  </si>
-  <si>
-    <t>test010</t>
-  </si>
-  <si>
-    <t>新增车辆</t>
-  </si>
-  <si>
-    <t>test_010_myCarAdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击我的车辆
-点击新增车辆按钮
-点击省份
-选择省份
-输入车牌号-1
-输入车牌号-2
-输入车牌号-3
-输入车牌号-4
-输入车牌号-5
-输入车牌号-6
-确定
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示信息
-车牌号码
-</t>
-  </si>
-  <si>
-    <t>test011</t>
-  </si>
-  <si>
-    <t>我的车辆列表</t>
-  </si>
-  <si>
-    <t>test_011_myCarList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击我的车辆
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">车牌号码
-</t>
-  </si>
-  <si>
-    <t>test012</t>
-  </si>
-  <si>
-    <t>删除车辆-放弃删除</t>
-  </si>
-  <si>
-    <t>test_012_myCarDelCancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击我的车辆
-点击删除车辆
-放弃删除
-</t>
-  </si>
-  <si>
-    <t>test013</t>
-  </si>
-  <si>
-    <t>删除车辆-删除成功</t>
-  </si>
-  <si>
-    <t>test_013_myCarDelSuccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击我的车辆
-点击删除车辆
-确定
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提示信息
-</t>
-  </si>
-  <si>
-    <t>test014</t>
-  </si>
-  <si>
-    <t>开门申请记录</t>
-  </si>
-  <si>
-    <t>test_014_myCarDel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击开门申请
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开门权限申请记录
+    <t xml:space="preserve">检查是否发送成功
 </t>
   </si>
 </sst>
@@ -615,7 +338,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1013,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -1030,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -1083,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1102,7 +825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1208,13 +931,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>18</v>
@@ -1222,343 +945,13 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1"/>
+    <row r="9" spans="1:10" ht="30" customHeight="1"/>
+    <row r="10" spans="1:10" ht="30" customHeight="1"/>
+    <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-29 15:31:44</t>
-  </si>
-  <si>
-    <t>2018-08-29 15:32:40</t>
+    <t>2018-08-29 17:16:35</t>
+  </si>
+  <si>
+    <t>2018-08-29 17:17:14</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>52秒</t>
+    <t>32秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,13 +110,13 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test015</t>
-  </si>
-  <si>
-    <t>意见反馈-新增</t>
-  </si>
-  <si>
-    <t>test_015_feedbackAdd</t>
+    <t>test017</t>
+  </si>
+  <si>
+    <t>意见反馈-删除</t>
+  </si>
+  <si>
+    <t>test_017_feedbackDel</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -125,39 +125,13 @@
 点击登录按钮
 点击我的
 点击意见反馈
-输入意见
-点击提交
+查看反馈记录
+点击某条记录
+点击删除
 </t>
   </si>
   <si>
     <t xml:space="preserve">提示信息
-检查是否退出菜单
-</t>
-  </si>
-  <si>
-    <t>test016</t>
-  </si>
-  <si>
-    <t>意见反馈-追问</t>
-  </si>
-  <si>
-    <t>test_016_feedbackMore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-点击意见反馈
-查看意见反馈记录
-点击某条记录
-继续追问
-发送
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查是否发送成功
 </t>
   </si>
 </sst>
@@ -338,7 +312,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -736,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -753,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -806,7 +780,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -917,34 +891,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-29 17:16:35</t>
-  </si>
-  <si>
-    <t>2018-08-29 17:17:14</t>
+    <t>2018-08-29 19:01:16</t>
+  </si>
+  <si>
+    <t>2018-08-29 19:02:52</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>32秒</t>
+    <t>92秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -108,6 +108,57 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test015</t>
+  </si>
+  <si>
+    <t>意见反馈-新增</t>
+  </si>
+  <si>
+    <t>test_015_feedbackAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+输入意见
+点击提交
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提示信息
+检查是否退出菜单
+</t>
+  </si>
+  <si>
+    <t>test016</t>
+  </si>
+  <si>
+    <t>意见反馈-追问</t>
+  </si>
+  <si>
+    <t>test_016_feedbackMore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+点击意见反馈
+查看意见反馈记录
+点击某条记录
+继续追问
+发送
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查是否发送成功
+</t>
   </si>
   <si>
     <t>test017</t>
@@ -132,6 +183,29 @@
   </si>
   <si>
     <t xml:space="preserve">提示信息
+</t>
+  </si>
+  <si>
+    <t>test018</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>test_018_aboutUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳过欢迎界面
+输入用户名
+输入密码
+点击登录按钮
+点击我的
+关于我们
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二维码
+APP简介
 </t>
   </si>
 </sst>
@@ -312,7 +386,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -710,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -727,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -780,7 +854,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -891,9 +965,90 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -41,10 +41,10 @@
     <t>V3.2.3</t>
   </si>
   <si>
-    <t>2018-08-29 19:01:16</t>
-  </si>
-  <si>
-    <t>2018-08-29 19:02:52</t>
+    <t>2018-08-30 18:00:54</t>
+  </si>
+  <si>
+    <t>2018-08-30 18:03:27</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>92秒</t>
+    <t>149秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,7 +77,7 @@
     <t>失败</t>
   </si>
   <si>
-    <t>asus_P023_android_5.1.1</t>
+    <t>Meizu_m2_android_5.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -110,13 +110,13 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test015</t>
-  </si>
-  <si>
-    <t>意见反馈-新增</t>
-  </si>
-  <si>
-    <t>test_015_feedbackAdd</t>
+    <t>test019</t>
+  </si>
+  <si>
+    <t>设置-账户安全</t>
+  </si>
+  <si>
+    <t>test_019_settingAccountSafe</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -124,24 +124,22 @@
 输入密码
 点击登录按钮
 点击我的
-点击意见反馈
-输入意见
-点击提交
+设置
+账户安全设置
 </t>
   </si>
   <si>
-    <t xml:space="preserve">提示信息
-检查是否退出菜单
+    <t xml:space="preserve">手机号检查
 </t>
   </si>
   <si>
-    <t>test016</t>
-  </si>
-  <si>
-    <t>意见反馈-追问</t>
-  </si>
-  <si>
-    <t>test_016_feedbackMore</t>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>设置-开门设置</t>
+  </si>
+  <si>
+    <t>test_020_settingOpenDoor</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -149,25 +147,24 @@
 输入密码
 点击登录按钮
 点击我的
-点击意见反馈
-查看意见反馈记录
-点击某条记录
-继续追问
-发送
+设置
+摇一摇开门设置
+开关
+开关
 </t>
   </si>
   <si>
-    <t xml:space="preserve">检查是否发送成功
+    <t xml:space="preserve">开关
 </t>
   </si>
   <si>
-    <t>test017</t>
-  </si>
-  <si>
-    <t>意见反馈-删除</t>
-  </si>
-  <si>
-    <t>test_017_feedbackDel</t>
+    <t>test021</t>
+  </si>
+  <si>
+    <t>设置-常见问题</t>
+  </si>
+  <si>
+    <t>test_021_settingQuestion</t>
   </si>
   <si>
     <t xml:space="preserve">跳过欢迎界面
@@ -175,37 +172,12 @@
 输入密码
 点击登录按钮
 点击我的
-点击意见反馈
-查看反馈记录
-点击某条记录
-点击删除
+设置
+常见问题
 </t>
   </si>
   <si>
-    <t xml:space="preserve">提示信息
-</t>
-  </si>
-  <si>
-    <t>test018</t>
-  </si>
-  <si>
-    <t>关于我们</t>
-  </si>
-  <si>
-    <t>test_018_aboutUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">跳过欢迎界面
-输入用户名
-输入密码
-点击登录按钮
-点击我的
-关于我们
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二维码
-APP简介
+    <t xml:space="preserve">常见问题
 </t>
   </si>
 </sst>
@@ -386,7 +358,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -784,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -801,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -854,7 +826,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1021,34 +993,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>
